--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/domain-members-and-hierarchies-EDA10-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/domain-members-and-hierarchies-EDA10-2018-1.xlsx
@@ -16,11 +16,29 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,10 +69,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -76,88 +97,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -166,7 +187,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>965edc64-220d-4478-a713-c79dc59464ca</t>
+          <t>b45f5fe5-89c2-4561-86fd-00315aa93d3d</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -231,65 +252,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="6.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -315,59 +336,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="6.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
